--- a/assignment_5/assignment_5_notes.xlsx
+++ b/assignment_5/assignment_5_notes.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanYell\Documents\cis5_spring2022\cis5_github\assignment_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB18586-8E74-4A19-937E-6C26846063EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508C7B88-72D7-45AC-9148-16972392BE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="prb8" sheetId="4" r:id="rId2"/>
+    <sheet name="prb3" sheetId="2" r:id="rId3"/>
+    <sheet name="prb4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Problem</t>
   </si>
@@ -56,9 +58,6 @@
     <t>10!·=·3628800</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>tc 3: if(n%2==0) return false;</t>
   </si>
   <si>
@@ -72,13 +71,55 @@
   </si>
   <si>
     <t>when do you need the +1 in sqrt(n)?</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>how to print 00:15</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>P=F/(1+r)^n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num yrs = n= </t>
+  </si>
+  <si>
+    <t>I.R. = r =</t>
+  </si>
+  <si>
+    <t>Future = F =</t>
+  </si>
+  <si>
+    <t>Amnt Need to deposit</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +134,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,7 +158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,20 +178,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,21 +490,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="11" width="9.06640625" style="1"/>
-    <col min="12" max="12" width="15.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="6" width="9.06640625" style="3"/>
+    <col min="7" max="7" width="15.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.86328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.46484375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -435,31 +519,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,24 +544,9 @@
       <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -502,233 +556,179 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="M5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A9" s="2">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -737,11 +737,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69617BDE-33BF-4200-8EEE-BA83D29BE484}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20000.009999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="C3" s="7">
+        <f>1+B3</f>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <f>POWER(C3,B4)</f>
+        <v>2.0121964718355518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <f>B2/(POWER((1+B3),B4))</f>
+        <v>9939.3922412336451</v>
+      </c>
+      <c r="C6" s="5">
+        <f>B2/C4</f>
+        <v>9939.3922412336451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF527CE-B1DA-41FF-A2AD-5918E3CFF0AC}">
   <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -755,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1304,4 +1378,219 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D13205-C61E-48E5-B850-C2B0CB0B8EC4}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>IF(MOD(B2,2)=0, B2/2, 3*B2+1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B17" si="0">IF(MOD(B3,2)=0, B3/2, 3*B3+1)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f>IF(MOD(B10,2)=0, B10/2, 3*B10+1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>